--- a/output.xlsx
+++ b/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,326 +393,2955 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>the</v>
+        <v>so</v>
       </c>
       <c r="B2" t="str">
-        <v>00:00:00.03</v>
+        <v>00:00:02.04</v>
       </c>
       <c r="C2" t="str">
-        <v>00:00:00.11</v>
+        <v>00:00:02.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>diving</v>
+        <v>in</v>
       </c>
       <c r="B3" t="str">
-        <v>00:00:00.11</v>
+        <v>00:00:02.21</v>
       </c>
       <c r="C3" t="str">
-        <v>00:00:00.52</v>
+        <v>00:00:02.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>board</v>
+        <v>the</v>
       </c>
       <c r="B4" t="str">
-        <v>00:00:00.52</v>
+        <v>00:00:02.37</v>
       </c>
       <c r="C4" t="str">
-        <v>00:00:00.87</v>
+        <v>00:00:02.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>was</v>
+        <v>last</v>
       </c>
       <c r="B5" t="str">
-        <v>00:00:00.87</v>
+        <v>00:00:02.46</v>
       </c>
       <c r="C5" t="str">
-        <v>00:00:01.06</v>
+        <v>00:00:02.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>high</v>
+        <v>video</v>
       </c>
       <c r="B6" t="str">
-        <v>00:00:01.06</v>
+        <v>00:00:02.72</v>
       </c>
       <c r="C6" t="str">
-        <v>00:00:01.67</v>
+        <v>00:00:03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>and</v>
+        <v>you</v>
       </c>
       <c r="B7" t="str">
-        <v>00:00:01.7</v>
+        <v>00:00:03</v>
       </c>
       <c r="C7" t="str">
-        <v>00:00:01.89</v>
+        <v>00:00:03.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>maybe</v>
+        <v>learned</v>
       </c>
       <c r="B8" t="str">
-        <v>00:00:01.89</v>
+        <v>00:00:03.17</v>
       </c>
       <c r="C8" t="str">
-        <v>00:00:02.26</v>
+        <v>00:00:03.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>a</v>
+        <v>that</v>
       </c>
       <c r="B9" t="str">
-        <v>00:00:02.26</v>
+        <v>00:00:03.67</v>
       </c>
       <c r="C9" t="str">
-        <v>00:00:02.34</v>
+        <v>00:00:03.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>little</v>
+        <v>note</v>
       </c>
       <c r="B10" t="str">
-        <v>00:00:02.34</v>
+        <v>00:00:03.87</v>
       </c>
       <c r="C10" t="str">
-        <v>00:00:02.6</v>
+        <v>00:00:04.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>scary</v>
+        <v>it's</v>
       </c>
       <c r="B11" t="str">
-        <v>00:00:02.6</v>
+        <v>00:00:04.26</v>
       </c>
       <c r="C11" t="str">
-        <v>00:00:03.24</v>
+        <v>00:00:04.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>budget</v>
+        <v>a</v>
       </c>
       <c r="B12" t="str">
-        <v>00:00:03.66</v>
+        <v>00:00:04.42</v>
       </c>
       <c r="C12" t="str">
-        <v>00:00:04</v>
+        <v>00:00:04.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bari</v>
+        <v>run</v>
       </c>
       <c r="B13" t="str">
-        <v>00:00:04</v>
+        <v>00:00:04.52</v>
       </c>
       <c r="C13" t="str">
-        <v>00:00:04.34</v>
+        <v>00:00:04.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>had</v>
+        <v>time</v>
       </c>
       <c r="B14" t="str">
-        <v>00:00:04.34</v>
+        <v>00:00:04.8</v>
       </c>
       <c r="C14" t="str">
-        <v>00:00:04.54</v>
+        <v>00:00:05.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>finished</v>
+        <v>environment</v>
       </c>
       <c r="B15" t="str">
-        <v>00:00:04.54</v>
+        <v>00:00:05.05</v>
       </c>
       <c r="C15" t="str">
-        <v>00:00:04.99</v>
+        <v>00:00:05.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>his</v>
+        <v>executing</v>
       </c>
       <c r="B16" t="str">
-        <v>00:00:04.99</v>
+        <v>00:00:05.98</v>
       </c>
       <c r="C16" t="str">
-        <v>00:00:05.15</v>
+        <v>00:00:06.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>swimming</v>
+        <v>Java</v>
       </c>
       <c r="B17" t="str">
-        <v>00:00:05.15</v>
+        <v>00:00:06.7</v>
       </c>
       <c r="C17" t="str">
-        <v>00:00:05.53</v>
+        <v>00:00:07.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>lessons</v>
+        <v>script</v>
       </c>
       <c r="B18" t="str">
-        <v>00:00:05.53</v>
+        <v>00:00:07.1</v>
       </c>
       <c r="C18" t="str">
-        <v>00:00:06.05</v>
+        <v>00:00:07.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>and</v>
+        <v>code</v>
       </c>
       <c r="B19" t="str">
-        <v>00:00:06.2</v>
+        <v>00:00:07.38</v>
       </c>
       <c r="C19" t="str">
-        <v>00:00:06.42</v>
+        <v>00:00:07.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>passed</v>
+        <v>but</v>
       </c>
       <c r="B20" t="str">
-        <v>00:00:06.42</v>
+        <v>00:00:08.08</v>
       </c>
       <c r="C20" t="str">
-        <v>00:00:06.79</v>
+        <v>00:00:08.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>his</v>
+        <v>what</v>
       </c>
       <c r="B21" t="str">
-        <v>00:00:06.79</v>
+        <v>00:00:08.28</v>
       </c>
       <c r="C21" t="str">
-        <v>00:00:06.94</v>
+        <v>00:00:08.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>swim</v>
+        <v>is</v>
       </c>
       <c r="B22" t="str">
-        <v>00:00:06.94</v>
+        <v>00:00:08.4</v>
       </c>
       <c r="C22" t="str">
-        <v>00:00:07.2</v>
+        <v>00:00:08.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>test</v>
+        <v>a</v>
       </c>
       <c r="B23" t="str">
-        <v>00:00:07.2</v>
+        <v>00:00:08.5</v>
       </c>
       <c r="C23" t="str">
-        <v>00:00:07.65</v>
+        <v>00:00:08.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>and</v>
+        <v>runtime</v>
       </c>
       <c r="B24" t="str">
-        <v>00:00:08.12</v>
+        <v>00:00:08.58</v>
       </c>
       <c r="C24" t="str">
-        <v>00:00:08.4</v>
+        <v>00:00:08.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>now</v>
+        <v>environment</v>
       </c>
       <c r="B25" t="str">
-        <v>00:00:08.4</v>
+        <v>00:00:08.98</v>
       </c>
       <c r="C25" t="str">
-        <v>00:00:08.92</v>
+        <v>00:00:09.43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>he</v>
+        <v>friendly</v>
       </c>
       <c r="B26" t="str">
-        <v>00:00:08.97</v>
+        <v>00:00:09.43</v>
       </c>
       <c r="C26" t="str">
-        <v>00:00:09.14</v>
+        <v>00:00:09.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>was</v>
+        <v>well</v>
       </c>
       <c r="B27" t="str">
-        <v>00:00:09.14</v>
+        <v>00:00:10.3</v>
       </c>
       <c r="C27" t="str">
-        <v>00:00:09.33</v>
+        <v>00:00:10.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ready</v>
+        <v>before</v>
       </c>
       <c r="B28" t="str">
-        <v>00:00:09.33</v>
+        <v>00:00:11.11</v>
       </c>
       <c r="C28" t="str">
-        <v>00:00:09.7</v>
+        <v>00:00:11.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>to</v>
+        <v>note</v>
       </c>
       <c r="B29" t="str">
-        <v>00:00:09.7</v>
+        <v>00:00:11.44</v>
       </c>
       <c r="C29" t="str">
-        <v>00:00:09.85</v>
+        <v>00:00:11.74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>jump</v>
+        <v>use</v>
       </c>
       <c r="B30" t="str">
-        <v>00:00:09.85</v>
+        <v>00:00:11.77</v>
       </c>
       <c r="C30" t="str">
-        <v>00:00:10.35</v>
+        <v>00:00:12.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B31" t="str">
+        <v>00:00:12.01</v>
+      </c>
+      <c r="C31" t="str">
+        <v>00:00:12.41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>script</v>
+      </c>
+      <c r="B32" t="str">
+        <v>00:00:12.41</v>
+      </c>
+      <c r="C32" t="str">
+        <v>00:00:12.78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>only</v>
+      </c>
+      <c r="B33" t="str">
+        <v>00:00:13.06</v>
+      </c>
+      <c r="C33" t="str">
+        <v>00:00:13.35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>to</v>
+      </c>
+      <c r="B34" t="str">
+        <v>00:00:13.35</v>
+      </c>
+      <c r="C34" t="str">
+        <v>00:00:13.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>build</v>
+      </c>
+      <c r="B35" t="str">
+        <v>00:00:13.5</v>
+      </c>
+      <c r="C35" t="str">
+        <v>00:00:13.78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>applications</v>
+      </c>
+      <c r="B36" t="str">
+        <v>00:00:13.81</v>
+      </c>
+      <c r="C36" t="str">
+        <v>00:00:14.54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>that</v>
+      </c>
+      <c r="B37" t="str">
+        <v>00:00:14.73</v>
+      </c>
+      <c r="C37" t="str">
+        <v>00:00:14.92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>run</v>
+      </c>
+      <c r="B38" t="str">
+        <v>00:00:14.92</v>
+      </c>
+      <c r="C38" t="str">
+        <v>00:00:15.28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>inside</v>
+      </c>
+      <c r="B39" t="str">
+        <v>00:00:15.39</v>
+      </c>
+      <c r="C39" t="str">
+        <v>00:00:15.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>of</v>
+      </c>
+      <c r="B40" t="str">
+        <v>00:00:15.85</v>
+      </c>
+      <c r="C40" t="str">
+        <v>00:00:15.97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>a</v>
+      </c>
+      <c r="B41" t="str">
+        <v>00:00:15.97</v>
+      </c>
+      <c r="C41" t="str">
+        <v>00:00:16.04</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B42" t="str">
+        <v>00:00:16.04</v>
+      </c>
+      <c r="C42" t="str">
+        <v>00:00:16.56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>every</v>
+      </c>
+      <c r="B43" t="str">
+        <v>00:00:17.45</v>
+      </c>
+      <c r="C43" t="str">
+        <v>00:00:17.64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B44" t="str">
+        <v>00:00:17.64</v>
+      </c>
+      <c r="C44" t="str">
+        <v>00:00:18.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>out</v>
+      </c>
+      <c r="B45" t="str">
+        <v>00:00:18.07</v>
+      </c>
+      <c r="C45" t="str">
+        <v>00:00:18.32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>there</v>
+      </c>
+      <c r="B46" t="str">
+        <v>00:00:18.32</v>
+      </c>
+      <c r="C46" t="str">
+        <v>00:00:18.62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>has</v>
+      </c>
+      <c r="B47" t="str">
+        <v>00:00:18.76</v>
+      </c>
+      <c r="C47" t="str">
+        <v>00:00:18.97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>what</v>
+      </c>
+      <c r="B48" t="str">
+        <v>00:00:18.97</v>
+      </c>
+      <c r="C48" t="str">
+        <v>00:00:19.21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>we</v>
+      </c>
+      <c r="B49" t="str">
+        <v>00:00:19.21</v>
+      </c>
+      <c r="C49" t="str">
+        <v>00:00:19.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>call</v>
+      </c>
+      <c r="B50" t="str">
+        <v>00:00:19.3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>00:00:19.68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>it</v>
+      </c>
+      <c r="B51" t="str">
+        <v>00:00:19.91</v>
+      </c>
+      <c r="C51" t="str">
+        <v>00:00:20.09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B52" t="str">
+        <v>00:00:20.15</v>
+      </c>
+      <c r="C52" t="str">
+        <v>00:00:20.54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>script</v>
+      </c>
+      <c r="B53" t="str">
+        <v>00:00:20.54</v>
+      </c>
+      <c r="C53" t="str">
+        <v>00:00:20.82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>engine</v>
+      </c>
+      <c r="B54" t="str">
+        <v>00:00:20.85</v>
+      </c>
+      <c r="C54" t="str">
+        <v>00:00:21.39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>that</v>
+      </c>
+      <c r="B55" t="str">
+        <v>00:00:21.79</v>
+      </c>
+      <c r="C55" t="str">
+        <v>00:00:21.99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>takes</v>
+      </c>
+      <c r="B56" t="str">
+        <v>00:00:21.99</v>
+      </c>
+      <c r="C56" t="str">
+        <v>00:00:22.31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>our</v>
+      </c>
+      <c r="B57" t="str">
+        <v>00:00:22.34</v>
+      </c>
+      <c r="C57" t="str">
+        <v>00:00:22.46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B58" t="str">
+        <v>00:00:22.46</v>
+      </c>
+      <c r="C58" t="str">
+        <v>00:00:22.87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>script</v>
+      </c>
+      <c r="B59" t="str">
+        <v>00:00:22.87</v>
+      </c>
+      <c r="C59" t="str">
+        <v>00:00:23.11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>code</v>
+      </c>
+      <c r="B60" t="str">
+        <v>00:00:23.11</v>
+      </c>
+      <c r="C60" t="str">
+        <v>00:00:23.47</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>and</v>
+      </c>
+      <c r="B61" t="str">
+        <v>00:00:23.8</v>
+      </c>
+      <c r="C61" t="str">
+        <v>00:00:24.01</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>converts</v>
+      </c>
+      <c r="B62" t="str">
+        <v>00:00:24.01</v>
+      </c>
+      <c r="C62" t="str">
+        <v>00:00:24.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>it</v>
+      </c>
+      <c r="B63" t="str">
+        <v>00:00:24.5</v>
+      </c>
+      <c r="C63" t="str">
+        <v>00:00:24.66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>to</v>
+      </c>
+      <c r="B64" t="str">
+        <v>00:00:24.66</v>
+      </c>
+      <c r="C64" t="str">
+        <v>00:00:24.77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>coat</v>
+      </c>
+      <c r="B65" t="str">
+        <v>00:00:24.77</v>
+      </c>
+      <c r="C65" t="str">
+        <v>00:00:25.22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>that</v>
+      </c>
+      <c r="B66" t="str">
+        <v>00:00:25.22</v>
+      </c>
+      <c r="C66" t="str">
+        <v>00:00:25.36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>a</v>
+      </c>
+      <c r="B67" t="str">
+        <v>00:00:25.36</v>
+      </c>
+      <c r="C67" t="str">
+        <v>00:00:25.41</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>computer</v>
+      </c>
+      <c r="B68" t="str">
+        <v>00:00:25.41</v>
+      </c>
+      <c r="C68" t="str">
+        <v>00:00:25.98</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>can</v>
+      </c>
+      <c r="B69" t="str">
+        <v>00:00:25.98</v>
+      </c>
+      <c r="C69" t="str">
+        <v>00:00:26.16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>understand</v>
+      </c>
+      <c r="B70" t="str">
+        <v>00:00:26.16</v>
+      </c>
+      <c r="C70" t="str">
+        <v>00:00:26.7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>for</v>
+      </c>
+      <c r="B71" t="str">
+        <v>00:00:27.26</v>
+      </c>
+      <c r="C71" t="str">
+        <v>00:00:27.37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>example</v>
+      </c>
+      <c r="B72" t="str">
+        <v>00:00:27.37</v>
+      </c>
+      <c r="C72" t="str">
+        <v>00:00:27.91</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Microsoft</v>
+      </c>
+      <c r="B73" t="str">
+        <v>00:00:28.11</v>
+      </c>
+      <c r="C73" t="str">
+        <v>00:00:28.68</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>edge</v>
+      </c>
+      <c r="B74" t="str">
+        <v>00:00:28.68</v>
+      </c>
+      <c r="C74" t="str">
+        <v>00:00:29.06</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>uses</v>
+      </c>
+      <c r="B75" t="str">
+        <v>00:00:29.18</v>
+      </c>
+      <c r="C75" t="str">
+        <v>00:00:29.53</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Chaka</v>
+      </c>
+      <c r="B76" t="str">
+        <v>00:00:29.53</v>
+      </c>
+      <c r="C76" t="str">
+        <v>00:00:30.14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Firefox</v>
+      </c>
+      <c r="B77" t="str">
+        <v>00:00:30.43</v>
+      </c>
+      <c r="C77" t="str">
+        <v>00:00:31</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>use</v>
+      </c>
+      <c r="B78" t="str">
+        <v>00:00:31</v>
+      </c>
+      <c r="C78" t="str">
+        <v>00:00:31.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>as</v>
+      </c>
+      <c r="B79" t="str">
+        <v>00:00:31.2</v>
+      </c>
+      <c r="C79" t="str">
+        <v>00:00:31.43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>spider</v>
+      </c>
+      <c r="B80" t="str">
+        <v>00:00:31.6</v>
+      </c>
+      <c r="C80" t="str">
+        <v>00:00:32.09</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>monkey</v>
+      </c>
+      <c r="B81" t="str">
+        <v>00:00:32.09</v>
+      </c>
+      <c r="C81" t="str">
+        <v>00:00:32.63</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>and</v>
+      </c>
+      <c r="B82" t="str">
+        <v>00:00:32.88</v>
+      </c>
+      <c r="C82" t="str">
+        <v>00:00:33.07</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="B83" t="str">
+        <v>00:00:33.07</v>
+      </c>
+      <c r="C83" t="str">
+        <v>00:00:33.4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>uses</v>
+      </c>
+      <c r="B84" t="str">
+        <v>00:00:33.4</v>
+      </c>
+      <c r="C84" t="str">
+        <v>00:00:33.79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>V.</v>
+      </c>
+      <c r="B85" t="str">
+        <v>00:00:33.79</v>
+      </c>
+      <c r="C85" t="str">
+        <v>00:00:34.04</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>eight</v>
+      </c>
+      <c r="B86" t="str">
+        <v>00:00:34.04</v>
+      </c>
+      <c r="C86" t="str">
+        <v>00:00:34.37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>and</v>
+      </c>
+      <c r="B87" t="str">
+        <v>00:00:35.05</v>
+      </c>
+      <c r="C87" t="str">
+        <v>00:00:35.18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>it's</v>
+      </c>
+      <c r="B88" t="str">
+        <v>00:00:35.18</v>
+      </c>
+      <c r="C88" t="str">
+        <v>00:00:35.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>because</v>
+      </c>
+      <c r="B89" t="str">
+        <v>00:00:35.26</v>
+      </c>
+      <c r="C89" t="str">
+        <v>00:00:35.61</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>of</v>
+      </c>
+      <c r="B90" t="str">
+        <v>00:00:35.61</v>
+      </c>
+      <c r="C90" t="str">
+        <v>00:00:35.73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>these</v>
+      </c>
+      <c r="B91" t="str">
+        <v>00:00:35.73</v>
+      </c>
+      <c r="C91" t="str">
+        <v>00:00:35.89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>varieties</v>
+      </c>
+      <c r="B92" t="str">
+        <v>00:00:35.89</v>
+      </c>
+      <c r="C92" t="str">
+        <v>00:00:36.68</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>of</v>
+      </c>
+      <c r="B93" t="str">
+        <v>00:00:36.71</v>
+      </c>
+      <c r="C93" t="str">
+        <v>00:00:36.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>engines</v>
+      </c>
+      <c r="B94" t="str">
+        <v>00:00:36.99</v>
+      </c>
+      <c r="C94" t="str">
+        <v>00:00:37.64</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>that</v>
+      </c>
+      <c r="B95" t="str">
+        <v>00:00:37.82</v>
+      </c>
+      <c r="C95" t="str">
+        <v>00:00:38.03</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>sometimes</v>
+      </c>
+      <c r="B96" t="str">
+        <v>00:00:38.03</v>
+      </c>
+      <c r="C96" t="str">
+        <v>00:00:38.56</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B97" t="str">
+        <v>00:00:38.62</v>
+      </c>
+      <c r="C97" t="str">
+        <v>00:00:39.01</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>script</v>
+      </c>
+      <c r="B98" t="str">
+        <v>00:00:39.01</v>
+      </c>
+      <c r="C98" t="str">
+        <v>00:00:39.27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>code</v>
+      </c>
+      <c r="B99" t="str">
+        <v>00:00:39.27</v>
+      </c>
+      <c r="C99" t="str">
+        <v>00:00:39.56</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>can</v>
+      </c>
+      <c r="B100" t="str">
+        <v>00:00:39.56</v>
+      </c>
+      <c r="C100" t="str">
+        <v>00:00:39.75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>behave</v>
+      </c>
+      <c r="B101" t="str">
+        <v>00:00:39.75</v>
+      </c>
+      <c r="C101" t="str">
+        <v>00:00:40.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>differently</v>
+      </c>
+      <c r="B102" t="str">
+        <v>00:00:40.49</v>
+      </c>
+      <c r="C102" t="str">
+        <v>00:00:41.11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>in</v>
+      </c>
+      <c r="B103" t="str">
+        <v>00:00:41.11</v>
+      </c>
+      <c r="C103" t="str">
+        <v>00:00:41.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>one</v>
+      </c>
+      <c r="B104" t="str">
+        <v>00:00:41.3</v>
+      </c>
+      <c r="C104" t="str">
+        <v>00:00:41.51</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B105" t="str">
+        <v>00:00:41.51</v>
+      </c>
+      <c r="C105" t="str">
+        <v>00:00:41.91</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>or</v>
+      </c>
+      <c r="B106" t="str">
+        <v>00:00:41.91</v>
+      </c>
+      <c r="C106" t="str">
+        <v>00:00:42.04</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>another</v>
+      </c>
+      <c r="B107" t="str">
+        <v>00:00:42.04</v>
+      </c>
+      <c r="C107" t="str">
+        <v>00:00:42.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>now</v>
+      </c>
+      <c r="B108" t="str">
+        <v>00:00:43.13</v>
+      </c>
+      <c r="C108" t="str">
+        <v>00:00:43.34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>the</v>
+      </c>
+      <c r="B109" t="str">
+        <v>00:00:43.61</v>
+      </c>
+      <c r="C109" t="str">
+        <v>00:00:43.71</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B110" t="str">
+        <v>00:00:43.71</v>
+      </c>
+      <c r="C110" t="str">
+        <v>00:00:44.22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>provides</v>
+      </c>
+      <c r="B111" t="str">
+        <v>00:00:44.22</v>
+      </c>
+      <c r="C111" t="str">
+        <v>00:00:44.72</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>and</v>
+      </c>
+      <c r="B112" t="str">
+        <v>00:00:44.78</v>
+      </c>
+      <c r="C112" t="str">
+        <v>00:00:44.97</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>runtime</v>
+      </c>
+      <c r="B113" t="str">
+        <v>00:00:44.97</v>
+      </c>
+      <c r="C113" t="str">
+        <v>00:00:45.36</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>environment</v>
+      </c>
+      <c r="B114" t="str">
+        <v>00:00:45.36</v>
+      </c>
+      <c r="C114" t="str">
+        <v>00:00:45.94</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>for</v>
+      </c>
+      <c r="B115" t="str">
+        <v>00:00:46.1</v>
+      </c>
+      <c r="C115" t="str">
+        <v>00:00:46.21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B116" t="str">
+        <v>00:00:46.21</v>
+      </c>
+      <c r="C116" t="str">
+        <v>00:00:46.64</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>script</v>
+      </c>
+      <c r="B117" t="str">
+        <v>00:00:46.64</v>
+      </c>
+      <c r="C117" t="str">
+        <v>00:00:46.92</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>code</v>
+      </c>
+      <c r="B118" t="str">
+        <v>00:00:46.92</v>
+      </c>
+      <c r="C118" t="str">
+        <v>00:00:47.17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>for</v>
+      </c>
+      <c r="B119" t="str">
+        <v>00:00:47.69</v>
+      </c>
+      <c r="C119" t="str">
+        <v>00:00:47.81</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>example</v>
+      </c>
+      <c r="B120" t="str">
+        <v>00:00:47.81</v>
+      </c>
+      <c r="C120" t="str">
+        <v>00:00:48.26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>you</v>
+      </c>
+      <c r="B121" t="str">
+        <v>00:00:48.26</v>
+      </c>
+      <c r="C121" t="str">
+        <v>00:00:48.41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>probably</v>
+      </c>
+      <c r="B122" t="str">
+        <v>00:00:48.41</v>
+      </c>
+      <c r="C122" t="str">
+        <v>00:00:48.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>know</v>
+      </c>
+      <c r="B123" t="str">
+        <v>00:00:48.8</v>
+      </c>
+      <c r="C123" t="str">
+        <v>00:00:49.16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>that</v>
+      </c>
+      <c r="B124" t="str">
+        <v>00:00:49.42</v>
+      </c>
+      <c r="C124" t="str">
+        <v>00:00:49.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>in</v>
+      </c>
+      <c r="B125" t="str">
+        <v>00:00:49.6</v>
+      </c>
+      <c r="C125" t="str">
+        <v>00:00:49.71</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>browsers</v>
+      </c>
+      <c r="B126" t="str">
+        <v>00:00:49.71</v>
+      </c>
+      <c r="C126" t="str">
+        <v>00:00:50.41</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>we</v>
+      </c>
+      <c r="B127" t="str">
+        <v>00:00:50.44</v>
+      </c>
+      <c r="C127" t="str">
+        <v>00:00:50.55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>have</v>
+      </c>
+      <c r="B128" t="str">
+        <v>00:00:50.55</v>
+      </c>
+      <c r="C128" t="str">
+        <v>00:00:50.77</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>the</v>
+      </c>
+      <c r="B129" t="str">
+        <v>00:00:50.77</v>
+      </c>
+      <c r="C129" t="str">
+        <v>00:00:50.88</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>window</v>
+      </c>
+      <c r="B130" t="str">
+        <v>00:00:50.88</v>
+      </c>
+      <c r="C130" t="str">
+        <v>00:00:51.47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>or</v>
+      </c>
+      <c r="B131" t="str">
+        <v>00:00:51.5</v>
+      </c>
+      <c r="C131" t="str">
+        <v>00:00:51.65</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>the</v>
+      </c>
+      <c r="B132" t="str">
+        <v>00:00:51.65</v>
+      </c>
+      <c r="C132" t="str">
+        <v>00:00:51.73</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>document</v>
+      </c>
+      <c r="B133" t="str">
+        <v>00:00:51.73</v>
+      </c>
+      <c r="C133" t="str">
+        <v>00:00:52.36</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>object</v>
+      </c>
+      <c r="B134" t="str">
+        <v>00:00:52.39</v>
+      </c>
+      <c r="C134" t="str">
+        <v>00:00:52.99</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>these</v>
+      </c>
+      <c r="B135" t="str">
+        <v>00:00:53.48</v>
+      </c>
+      <c r="C135" t="str">
+        <v>00:00:53.74</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>objects</v>
+      </c>
+      <c r="B136" t="str">
+        <v>00:00:53.77</v>
+      </c>
+      <c r="C136" t="str">
+        <v>00:00:54.35</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>allow</v>
+      </c>
+      <c r="B137" t="str">
+        <v>00:00:54.38</v>
+      </c>
+      <c r="C137" t="str">
+        <v>00:00:54.69</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>us</v>
+      </c>
+      <c r="B138" t="str">
+        <v>00:00:54.69</v>
+      </c>
+      <c r="C138" t="str">
+        <v>00:00:54.95</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>to</v>
+      </c>
+      <c r="B139" t="str">
+        <v>00:00:55.14</v>
+      </c>
+      <c r="C139" t="str">
+        <v>00:00:55.25</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>work</v>
+      </c>
+      <c r="B140" t="str">
+        <v>00:00:55.25</v>
+      </c>
+      <c r="C140" t="str">
+        <v>00:00:55.56</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>with</v>
+      </c>
+      <c r="B141" t="str">
+        <v>00:00:55.59</v>
+      </c>
+      <c r="C141" t="str">
+        <v>00:00:55.71</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>the</v>
+      </c>
+      <c r="B142" t="str">
+        <v>00:00:55.71</v>
+      </c>
+      <c r="C142" t="str">
+        <v>00:00:55.83</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>environment</v>
+      </c>
+      <c r="B143" t="str">
+        <v>00:00:55.87</v>
+      </c>
+      <c r="C143" t="str">
+        <v>00:00:56.56</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>in</v>
+      </c>
+      <c r="B144" t="str">
+        <v>00:00:56.59</v>
+      </c>
+      <c r="C144" t="str">
+        <v>00:00:56.74</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>which</v>
+      </c>
+      <c r="B145" t="str">
+        <v>00:00:56.74</v>
+      </c>
+      <c r="C145" t="str">
+        <v>00:00:57.09</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>our</v>
+      </c>
+      <c r="B146" t="str">
+        <v>00:00:57.12</v>
+      </c>
+      <c r="C146" t="str">
+        <v>00:00:57.26</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>code</v>
+      </c>
+      <c r="B147" t="str">
+        <v>00:00:57.26</v>
+      </c>
+      <c r="C147" t="str">
+        <v>00:00:57.65</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>is</v>
+      </c>
+      <c r="B148" t="str">
+        <v>00:00:57.68</v>
+      </c>
+      <c r="C148" t="str">
+        <v>00:00:57.86</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>right</v>
+      </c>
+      <c r="B149" t="str">
+        <v>00:00:57.86</v>
+      </c>
+      <c r="C149" t="str">
+        <v>00:00:58.17</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>now</v>
+      </c>
+      <c r="B150" t="str">
+        <v>00:00:58.73</v>
+      </c>
+      <c r="C150" t="str">
+        <v>00:00:58.93</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>up</v>
+      </c>
+      <c r="B151" t="str">
+        <v>00:00:58.96</v>
+      </c>
+      <c r="C151" t="str">
+        <v>00:00:59.11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>to</v>
+      </c>
+      <c r="B152" t="str">
+        <v>00:00:59.11</v>
+      </c>
+      <c r="C152" t="str">
+        <v>00:00:59.21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>two</v>
+      </c>
+      <c r="B153" t="str">
+        <v>00:00:59.21</v>
+      </c>
+      <c r="C153" t="str">
+        <v>00:00:59.45</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>thousand</v>
+      </c>
+      <c r="B154" t="str">
+        <v>00:00:59.45</v>
+      </c>
+      <c r="C154" t="str">
+        <v>00:00:59.81</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>and</v>
+      </c>
+      <c r="B155" t="str">
+        <v>00:00:59.81</v>
+      </c>
+      <c r="C155" t="str">
+        <v>00:00:59.9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>nine</v>
+      </c>
+      <c r="B156" t="str">
+        <v>00:00:59.9</v>
+      </c>
+      <c r="C156" t="str">
+        <v>00:00:60.19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>only</v>
+      </c>
+      <c r="B157" t="str">
+        <v>00:00:60.64</v>
+      </c>
+      <c r="C157" t="str">
+        <v>00:00:60.96</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>way</v>
+      </c>
+      <c r="B158" t="str">
+        <v>00:00:60.96</v>
+      </c>
+      <c r="C158" t="str">
+        <v>00:00:61.16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>to</v>
+      </c>
+      <c r="B159" t="str">
+        <v>00:00:61.16</v>
+      </c>
+      <c r="C159" t="str">
+        <v>00:00:61.32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>execute</v>
+      </c>
+      <c r="B160" t="str">
+        <v>00:00:61.32</v>
+      </c>
+      <c r="C160" t="str">
+        <v>00:00:61.87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B161" t="str">
+        <v>00:00:61.87</v>
+      </c>
+      <c r="C161" t="str">
+        <v>00:00:62.24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>script</v>
+      </c>
+      <c r="B162" t="str">
+        <v>00:00:62.24</v>
+      </c>
+      <c r="C162" t="str">
+        <v>00:00:62.48</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>code</v>
+      </c>
+      <c r="B163" t="str">
+        <v>00:00:62.48</v>
+      </c>
+      <c r="C163" t="str">
+        <v>00:00:62.79</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>was</v>
+      </c>
+      <c r="B164" t="str">
+        <v>00:00:63.02</v>
+      </c>
+      <c r="C164" t="str">
+        <v>00:00:63.27</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>inside</v>
+      </c>
+      <c r="B165" t="str">
+        <v>00:00:63.31</v>
+      </c>
+      <c r="C165" t="str">
+        <v>00:00:63.82</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>of</v>
+      </c>
+      <c r="B166" t="str">
+        <v>00:00:63.85</v>
+      </c>
+      <c r="C166" t="str">
+        <v>00:00:63.96</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>a</v>
+      </c>
+      <c r="B167" t="str">
+        <v>00:00:63.96</v>
+      </c>
+      <c r="C167" t="str">
+        <v>00:00:64.02</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B168" t="str">
+        <v>00:00:64.02</v>
+      </c>
+      <c r="C168" t="str">
+        <v>00:00:64.46</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>in</v>
+      </c>
+      <c r="B169" t="str">
+        <v>00:00:65.1</v>
+      </c>
+      <c r="C169" t="str">
+        <v>00:00:65.25</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>two</v>
+      </c>
+      <c r="B170" t="str">
+        <v>00:00:65.25</v>
+      </c>
+      <c r="C170" t="str">
+        <v>00:00:65.41</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>thousand</v>
+      </c>
+      <c r="B171" t="str">
+        <v>00:00:65.41</v>
+      </c>
+      <c r="C171" t="str">
+        <v>00:00:65.74</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>and</v>
+      </c>
+      <c r="B172" t="str">
+        <v>00:00:65.74</v>
+      </c>
+      <c r="C172" t="str">
+        <v>00:00:65.85</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>nine</v>
+      </c>
+      <c r="B173" t="str">
+        <v>00:00:65.85</v>
+      </c>
+      <c r="C173" t="str">
+        <v>00:00:66.18</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Bryant</v>
+      </c>
+      <c r="B174" t="str">
+        <v>00:00:66.48</v>
+      </c>
+      <c r="C174" t="str">
+        <v>00:00:66.96</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>all</v>
+      </c>
+      <c r="B175" t="str">
+        <v>00:00:66.96</v>
+      </c>
+      <c r="C175" t="str">
+        <v>00:00:67.32</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>the</v>
+      </c>
+      <c r="B176" t="str">
+        <v>00:00:67.37</v>
+      </c>
+      <c r="C176" t="str">
+        <v>00:00:67.49</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>creator</v>
+      </c>
+      <c r="B177" t="str">
+        <v>00:00:67.49</v>
+      </c>
+      <c r="C177" t="str">
+        <v>00:00:67.91</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>of</v>
+      </c>
+      <c r="B178" t="str">
+        <v>00:00:67.91</v>
+      </c>
+      <c r="C178" t="str">
+        <v>00:00:68.02</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>note</v>
+      </c>
+      <c r="B179" t="str">
+        <v>00:00:68.02</v>
+      </c>
+      <c r="C179" t="str">
+        <v>00:00:68.37</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>came</v>
+      </c>
+      <c r="B180" t="str">
+        <v>00:00:68.6</v>
+      </c>
+      <c r="C180" t="str">
+        <v>00:00:68.9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>up</v>
+      </c>
+      <c r="B181" t="str">
+        <v>00:00:68.9</v>
+      </c>
+      <c r="C181" t="str">
+        <v>00:00:69.1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>with</v>
+      </c>
+      <c r="B182" t="str">
+        <v>00:00:69.1</v>
+      </c>
+      <c r="C182" t="str">
+        <v>00:00:69.22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>a</v>
+      </c>
+      <c r="B183" t="str">
+        <v>00:00:69.22</v>
+      </c>
+      <c r="C183" t="str">
+        <v>00:00:69.27</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>brilliant</v>
+      </c>
+      <c r="B184" t="str">
+        <v>00:00:69.27</v>
+      </c>
+      <c r="C184" t="str">
+        <v>00:00:69.99</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>idea</v>
+      </c>
+      <c r="B185" t="str">
+        <v>00:00:70.02</v>
+      </c>
+      <c r="C185" t="str">
+        <v>00:00:70.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>he</v>
+      </c>
+      <c r="B186" t="str">
+        <v>00:00:71.18</v>
+      </c>
+      <c r="C186" t="str">
+        <v>00:00:71.29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>thought</v>
+      </c>
+      <c r="B187" t="str">
+        <v>00:00:71.29</v>
+      </c>
+      <c r="C187" t="str">
+        <v>00:00:71.56</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>it</v>
+      </c>
+      <c r="B188" t="str">
+        <v>00:00:71.56</v>
+      </c>
+      <c r="C188" t="str">
+        <v>00:00:71.68</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>would</v>
+      </c>
+      <c r="B189" t="str">
+        <v>00:00:71.68</v>
+      </c>
+      <c r="C189" t="str">
+        <v>00:00:71.81</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>be</v>
+      </c>
+      <c r="B190" t="str">
+        <v>00:00:71.81</v>
+      </c>
+      <c r="C190" t="str">
+        <v>00:00:71.9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>great</v>
+      </c>
+      <c r="B191" t="str">
+        <v>00:00:71.9</v>
+      </c>
+      <c r="C191" t="str">
+        <v>00:00:72.29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>to</v>
+      </c>
+      <c r="B192" t="str">
+        <v>00:00:72.29</v>
+      </c>
+      <c r="C192" t="str">
+        <v>00:00:72.43</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>execute</v>
+      </c>
+      <c r="B193" t="str">
+        <v>00:00:72.46</v>
+      </c>
+      <c r="C193" t="str">
+        <v>00:00:73.01</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B194" t="str">
+        <v>00:00:73.01</v>
+      </c>
+      <c r="C194" t="str">
+        <v>00:00:73.37</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>script</v>
+      </c>
+      <c r="B195" t="str">
+        <v>00:00:73.37</v>
+      </c>
+      <c r="C195" t="str">
+        <v>00:00:73.76</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>outside</v>
+      </c>
+      <c r="B196" t="str">
+        <v>00:00:73.86</v>
+      </c>
+      <c r="C196" t="str">
+        <v>00:00:74.31</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>of</v>
+      </c>
+      <c r="B197" t="str">
+        <v>00:00:74.31</v>
+      </c>
+      <c r="C197" t="str">
+        <v>00:00:74.37</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>a</v>
+      </c>
+      <c r="B198" t="str">
+        <v>00:00:74.37</v>
+      </c>
+      <c r="C198" t="str">
+        <v>00:00:74.44</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B199" t="str">
+        <v>00:00:74.44</v>
+      </c>
+      <c r="C199" t="str">
+        <v>00:00:74.95</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>so</v>
+      </c>
+      <c r="B200" t="str">
+        <v>00:00:75.32</v>
+      </c>
+      <c r="C200" t="str">
+        <v>00:00:75.53</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>he</v>
+      </c>
+      <c r="B201" t="str">
+        <v>00:00:75.53</v>
+      </c>
+      <c r="C201" t="str">
+        <v>00:00:75.68</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>took</v>
+      </c>
+      <c r="B202" t="str">
+        <v>00:00:75.68</v>
+      </c>
+      <c r="C202" t="str">
+        <v>00:00:75.94</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Google's</v>
+      </c>
+      <c r="B203" t="str">
+        <v>00:00:76.11</v>
+      </c>
+      <c r="C203" t="str">
+        <v>00:00:76.69</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>V.</v>
+      </c>
+      <c r="B204" t="str">
+        <v>00:00:76.79</v>
+      </c>
+      <c r="C204" t="str">
+        <v>00:00:77.02</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>eight</v>
+      </c>
+      <c r="B205" t="str">
+        <v>00:00:77.02</v>
+      </c>
+      <c r="C205" t="str">
+        <v>00:00:77.27</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>engine</v>
+      </c>
+      <c r="B206" t="str">
+        <v>00:00:77.3</v>
+      </c>
+      <c r="C206" t="str">
+        <v>00:00:77.81</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>which</v>
+      </c>
+      <c r="B207" t="str">
+        <v>00:00:77.84</v>
+      </c>
+      <c r="C207" t="str">
+        <v>00:00:78</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>is</v>
+      </c>
+      <c r="B208" t="str">
+        <v>00:00:78</v>
+      </c>
+      <c r="C208" t="str">
+        <v>00:00:78.12</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>the</v>
+      </c>
+      <c r="B209" t="str">
+        <v>00:00:78.12</v>
+      </c>
+      <c r="C209" t="str">
+        <v>00:00:78.21</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>fastest</v>
+      </c>
+      <c r="B210" t="str">
+        <v>00:00:78.21</v>
+      </c>
+      <c r="C210" t="str">
+        <v>00:00:79.02</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B211" t="str">
+        <v>00:00:79.07</v>
+      </c>
+      <c r="C211" t="str">
+        <v>00:00:79.45</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>script</v>
+      </c>
+      <c r="B212" t="str">
+        <v>00:00:79.45</v>
+      </c>
+      <c r="C212" t="str">
+        <v>00:00:79.71</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>engine</v>
+      </c>
+      <c r="B213" t="str">
+        <v>00:00:79.75</v>
+      </c>
+      <c r="C213" t="str">
+        <v>00:00:80.12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>out</v>
+      </c>
+      <c r="B214" t="str">
+        <v>00:00:80.12</v>
+      </c>
+      <c r="C214" t="str">
+        <v>00:00:80.33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>there</v>
+      </c>
+      <c r="B215" t="str">
+        <v>00:00:80.33</v>
+      </c>
+      <c r="C215" t="str">
+        <v>00:00:80.63</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>and</v>
+      </c>
+      <c r="B216" t="str">
+        <v>00:00:81.03</v>
+      </c>
+      <c r="C216" t="str">
+        <v>00:00:81.22</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>invented</v>
+      </c>
+      <c r="B217" t="str">
+        <v>00:00:81.3</v>
+      </c>
+      <c r="C217" t="str">
+        <v>00:00:81.85</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>it</v>
+      </c>
+      <c r="B218" t="str">
+        <v>00:00:81.85</v>
+      </c>
+      <c r="C218" t="str">
+        <v>00:00:82.09</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>inside</v>
+      </c>
+      <c r="B219" t="str">
+        <v>00:00:82.27</v>
+      </c>
+      <c r="C219" t="str">
+        <v>00:00:82.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>his</v>
+      </c>
+      <c r="B220" t="str">
+        <v>00:00:82.84</v>
+      </c>
+      <c r="C220" t="str">
+        <v>00:00:82.99</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>C.</v>
+      </c>
+      <c r="B221" t="str">
+        <v>00:00:82.99</v>
+      </c>
+      <c r="C221" t="str">
+        <v>00:00:83.18</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>plus</v>
+      </c>
+      <c r="B222" t="str">
+        <v>00:00:83.18</v>
+      </c>
+      <c r="C222" t="str">
+        <v>00:00:83.45</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>plus</v>
+      </c>
+      <c r="B223" t="str">
+        <v>00:00:83.45</v>
+      </c>
+      <c r="C223" t="str">
+        <v>00:00:83.71</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>program</v>
+      </c>
+      <c r="B224" t="str">
+        <v>00:00:83.71</v>
+      </c>
+      <c r="C224" t="str">
+        <v>00:00:84.28</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>and</v>
+      </c>
+      <c r="B225" t="str">
+        <v>00:00:84.36</v>
+      </c>
+      <c r="C225" t="str">
+        <v>00:00:84.53</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>called</v>
+      </c>
+      <c r="B226" t="str">
+        <v>00:00:84.53</v>
+      </c>
+      <c r="C226" t="str">
+        <v>00:00:84.86</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>a</v>
+      </c>
+      <c r="B227" t="str">
+        <v>00:00:84.86</v>
+      </c>
+      <c r="C227" t="str">
+        <v>00:00:84.94</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>program</v>
+      </c>
+      <c r="B228" t="str">
+        <v>00:00:84.94</v>
+      </c>
+      <c r="C228" t="str">
+        <v>00:00:85.51</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>note</v>
+      </c>
+      <c r="B229" t="str">
+        <v>00:00:85.76</v>
+      </c>
+      <c r="C229" t="str">
+        <v>00:00:86.09</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>so</v>
+      </c>
+      <c r="B230" t="str">
+        <v>00:00:86.75</v>
+      </c>
+      <c r="C230" t="str">
+        <v>00:00:86.87</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>similar</v>
+      </c>
+      <c r="B231" t="str">
+        <v>00:00:86.87</v>
+      </c>
+      <c r="C231" t="str">
+        <v>00:00:87.27</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>to</v>
+      </c>
+      <c r="B232" t="str">
+        <v>00:00:87.27</v>
+      </c>
+      <c r="C232" t="str">
+        <v>00:00:87.38</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>the</v>
+      </c>
+      <c r="B233" t="str">
+        <v>00:00:87.38</v>
+      </c>
+      <c r="C233" t="str">
+        <v>00:00:87.46</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>browser</v>
+      </c>
+      <c r="B234" t="str">
+        <v>00:00:87.46</v>
+      </c>
+      <c r="C234" t="str">
+        <v>00:00:88.12</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>known</v>
+      </c>
+      <c r="B235" t="str">
+        <v>00:00:88.38</v>
+      </c>
+      <c r="C235" t="str">
+        <v>00:00:88.75</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>as</v>
+      </c>
+      <c r="B236" t="str">
+        <v>00:00:88.86</v>
+      </c>
+      <c r="C236" t="str">
+        <v>00:00:88.97</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>the</v>
+      </c>
+      <c r="B237" t="str">
+        <v>00:00:88.97</v>
+      </c>
+      <c r="C237" t="str">
+        <v>00:00:89.09</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>runtime</v>
+      </c>
+      <c r="B238" t="str">
+        <v>00:00:89.09</v>
+      </c>
+      <c r="C238" t="str">
+        <v>00:00:89.52</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>environment</v>
+      </c>
+      <c r="B239" t="str">
+        <v>00:00:89.52</v>
+      </c>
+      <c r="C239" t="str">
+        <v>00:00:90.12</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>for</v>
+      </c>
+      <c r="B240" t="str">
+        <v>00:00:90.12</v>
+      </c>
+      <c r="C240" t="str">
+        <v>00:00:90.27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B241" t="str">
+        <v>00:00:90.27</v>
+      </c>
+      <c r="C241" t="str">
+        <v>00:00:90.71</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>script</v>
+      </c>
+      <c r="B242" t="str">
+        <v>00:00:90.71</v>
+      </c>
+      <c r="C242" t="str">
+        <v>00:00:90.97</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>code</v>
+      </c>
+      <c r="B243" t="str">
+        <v>00:00:90.97</v>
+      </c>
+      <c r="C243" t="str">
+        <v>00:00:91.22</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>its</v>
+      </c>
+      <c r="B244" t="str">
+        <v>00:00:91.72</v>
+      </c>
+      <c r="C244" t="str">
+        <v>00:00:91.87</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>content</v>
+      </c>
+      <c r="B245" t="str">
+        <v>00:00:91.87</v>
+      </c>
+      <c r="C245" t="str">
+        <v>00:00:92.31</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>it</v>
+      </c>
+      <c r="B246" t="str">
+        <v>00:00:92.34</v>
+      </c>
+      <c r="C246" t="str">
+        <v>00:00:92.47</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B247" t="str">
+        <v>00:00:92.47</v>
+      </c>
+      <c r="C247" t="str">
+        <v>00:00:92.83</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>script</v>
+      </c>
+      <c r="B248" t="str">
+        <v>00:00:92.83</v>
+      </c>
+      <c r="C248" t="str">
+        <v>00:00:93.07</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>engine</v>
+      </c>
+      <c r="B249" t="str">
+        <v>00:00:93.1</v>
+      </c>
+      <c r="C249" t="str">
+        <v>00:00:93.6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>can</v>
+      </c>
+      <c r="B250" t="str">
+        <v>00:00:93.7</v>
+      </c>
+      <c r="C250" t="str">
+        <v>00:00:94</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>execute</v>
+      </c>
+      <c r="B251" t="str">
+        <v>00:00:94.06</v>
+      </c>
+      <c r="C251" t="str">
+        <v>00:00:94.72</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>our</v>
+      </c>
+      <c r="B252" t="str">
+        <v>00:00:94.8</v>
+      </c>
+      <c r="C252" t="str">
+        <v>00:00:94.96</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B253" t="str">
+        <v>00:00:94.96</v>
+      </c>
+      <c r="C253" t="str">
+        <v>00:00:95.3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>script</v>
+      </c>
+      <c r="B254" t="str">
+        <v>00:00:95.3</v>
+      </c>
+      <c r="C254" t="str">
+        <v>00:00:95.57</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>code</v>
+      </c>
+      <c r="B255" t="str">
+        <v>00:00:95.57</v>
+      </c>
+      <c r="C255" t="str">
+        <v>00:00:95.78</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>but</v>
+      </c>
+      <c r="B256" t="str">
+        <v>00:00:96.23</v>
+      </c>
+      <c r="C256" t="str">
+        <v>00:00:96.4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>it</v>
+      </c>
+      <c r="B257" t="str">
+        <v>00:00:96.4</v>
+      </c>
+      <c r="C257" t="str">
+        <v>00:00:96.52</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>also</v>
+      </c>
+      <c r="B258" t="str">
+        <v>00:00:96.56</v>
+      </c>
+      <c r="C258" t="str">
+        <v>00:00:96.94</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>has</v>
+      </c>
+      <c r="B259" t="str">
+        <v>00:00:96.94</v>
+      </c>
+      <c r="C259" t="str">
+        <v>00:00:97.27</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>certain</v>
+      </c>
+      <c r="B260" t="str">
+        <v>00:00:97.35</v>
+      </c>
+      <c r="C260" t="str">
+        <v>00:00:97.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>objects</v>
+      </c>
+      <c r="B261" t="str">
+        <v>00:00:97.89</v>
+      </c>
+      <c r="C261" t="str">
+        <v>00:00:98.43</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>that</v>
+      </c>
+      <c r="B262" t="str">
+        <v>00:00:98.43</v>
+      </c>
+      <c r="C262" t="str">
+        <v>00:00:98.64</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>provide</v>
+      </c>
+      <c r="B263" t="str">
+        <v>00:00:98.64</v>
+      </c>
+      <c r="C263" t="str">
+        <v>00:00:99.1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>an</v>
+      </c>
+      <c r="B264" t="str">
+        <v>00:00:99.13</v>
+      </c>
+      <c r="C264" t="str">
+        <v>00:00:99.32</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>environment</v>
+      </c>
+      <c r="B265" t="str">
+        <v>00:00:99.36</v>
+      </c>
+      <c r="C265" t="str">
+        <v>00:00:100.17</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>for</v>
+      </c>
+      <c r="B266" t="str">
+        <v>00:00:100.33</v>
+      </c>
+      <c r="C266" t="str">
+        <v>00:00:100.56</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B267" t="str">
+        <v>00:00:100.56</v>
+      </c>
+      <c r="C267" t="str">
+        <v>00:00:100.97</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>script</v>
+      </c>
+      <c r="B268" t="str">
+        <v>00:00:100.97</v>
+      </c>
+      <c r="C268" t="str">
+        <v>00:00:101.23</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>code</v>
+      </c>
+      <c r="B269" t="str">
+        <v>00:00:101.23</v>
+      </c>
+      <c r="C269" t="str">
+        <v>00:00:101.48</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C269"/>
   </ignoredErrors>
 </worksheet>
 </file>